--- a/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.associatedParty` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.associatedParty` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.associatedParty` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchStudy</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.name` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.name` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.associatedParty.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.role` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.role` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.associatedParty.role` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.period` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.period` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.associatedParty.period` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -488,7 +488,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.classifier` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.classifier` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Element `ResearchStudy.associatedParty.classifier` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:classifier.id</t>
@@ -519,7 +519,8 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.party` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.party` is mapped to FHIR R4 structure `ResearchStudy`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.associatedParty.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ResearchStudy.associatedParty.party` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
@@ -885,7 +886,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.1484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="201.66796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="174">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchStudy.associatedParty` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchStudy.associatedParty` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.name` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.name` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.name</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -421,7 +424,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.role` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.role` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty.role` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -431,6 +434,9 @@
   </si>
   <si>
     <t>Extension.extension:role.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.role</t>
   </si>
   <si>
     <t>Extension.extension:role.value[x]</t>
@@ -456,7 +462,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.period` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.period` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -466,6 +472,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -488,7 +497,7 @@
   </si>
   <si>
     <t>Element `ResearchStudy.associatedParty.classifier` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.classifier` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty.classifier` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:classifier.id</t>
@@ -498,6 +507,9 @@
   </si>
   <si>
     <t>Extension.extension:classifier.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.classifier</t>
   </si>
   <si>
     <t>Extension.extension:classifier.value[x]</t>
@@ -520,7 +532,7 @@
   <si>
     <t>Element `ResearchStudy.associatedParty.party` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.associatedParty.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ResearchStudy.associatedParty.party` is will have a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+Element `ResearchStudy.associatedParty.party` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:party.id</t>
@@ -530,6 +542,9 @@
   </si>
   <si>
     <t>Extension.extension:party.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.party</t>
   </si>
   <si>
     <t>Extension.extension:party.value[x]</t>
@@ -1694,7 +1709,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1736,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1751,15 +1766,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1839,7 +1854,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1851,21 +1866,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1890,14 +1905,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1966,7 +1981,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2069,7 +2084,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2174,7 +2189,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2217,7 +2232,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2259,7 +2274,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2274,15 +2289,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2305,13 +2320,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2362,7 +2377,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2374,21 +2389,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2413,16 +2428,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2491,7 +2506,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2594,7 +2609,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2699,7 +2714,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2742,7 +2757,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2784,7 +2799,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2799,15 +2814,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2830,16 +2845,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2889,7 +2904,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2901,21 +2916,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2940,14 +2955,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3016,7 +3031,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3119,7 +3134,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3224,7 +3239,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3267,7 +3282,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3309,7 +3324,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3324,15 +3339,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3355,13 +3370,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3412,7 +3427,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3424,21 +3439,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3463,16 +3478,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3541,7 +3556,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3644,7 +3659,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3749,7 +3764,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3792,7 +3807,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3834,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -3849,15 +3864,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3880,16 +3895,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3939,7 +3954,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3951,18 +3966,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4044,7 +4059,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -4059,15 +4074,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4090,13 +4105,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4147,7 +4162,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4159,10 +4174,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -550,7 +550,7 @@
     <t>Extension.extension:party.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
+++ b/StructureDefinition-ext-R5-ResearchStudy.associatedParty.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="175">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>Name of associated party.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty.name` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.associatedParty.name` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:name.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.name</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,8 +419,7 @@
     <t>Type of association.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty.role` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.role` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.associatedParty.role` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:role.id</t>
@@ -434,9 +429,6 @@
   </si>
   <si>
     <t>Extension.extension:role.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.role</t>
   </si>
   <si>
     <t>Extension.extension:role.value[x]</t>
@@ -446,6 +438,15 @@
 </t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>desc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-study-party-role-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:period</t>
   </si>
   <si>
@@ -461,8 +462,7 @@
     <t>The cardinality is 0..* due to the fact that an associated party may be intermittently active in a given role over multiple time periods.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty.period` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.associatedParty.period` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -496,8 +493,7 @@
     <t>A categorization other than role for the associated party.</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty.classifier` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Element `ResearchStudy.associatedParty.classifier` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
+    <t>Element `ResearchStudy.associatedParty.classifier` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
     <t>Extension.extension:classifier.id</t>
@@ -509,12 +505,18 @@
     <t>Extension.extension:classifier.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.classifier</t>
-  </si>
-  <si>
     <t>Extension.extension:classifier.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A characterization or type of the entity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-study-party-organization-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:party</t>
   </si>
   <si>
@@ -530,8 +532,7 @@
     <t>Suggestions of a better attribute name are appreciated</t>
   </si>
   <si>
-    <t>Element `ResearchStudy.associatedParty.party` is part of an existing definition because parent element `ResearchStudy.associatedParty` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.associatedParty.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ResearchStudy.associatedParty.party` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ResearchStudy.associatedParty.party` has a context of ResearchStudy based on following the parent source element upwards and mapping to `ResearchStudy`.</t>
   </si>
   <si>
@@ -544,13 +545,10 @@
     <t>Extension.extension:party.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.associatedParty.party</t>
-  </si>
-  <si>
     <t>Extension.extension:party.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -911,8 +909,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="32.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1709,72 +1707,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1854,33 +1852,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1905,14 +1903,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1981,7 +1979,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2084,7 +2082,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2189,7 +2187,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2232,7 +2230,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2274,30 +2272,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2320,13 +2318,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2353,13 +2351,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2377,33 +2375,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2428,16 +2426,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2506,7 +2504,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2609,7 +2607,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2714,7 +2712,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2757,7 +2755,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2799,22 +2797,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
@@ -2822,7 +2820,7 @@
         <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2848,13 +2846,13 @@
         <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2904,22 +2902,22 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3282,7 +3280,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3324,30 +3322,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3370,7 +3368,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>151</v>
@@ -3403,13 +3401,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3427,33 +3425,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3478,16 +3476,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3556,7 +3554,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3659,7 +3657,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3764,7 +3762,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3807,7 +3805,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3849,30 +3847,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3895,16 +3893,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3954,30 +3952,30 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4059,30 +4057,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4105,13 +4103,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4162,22 +4160,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
